--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3578093.567856642</v>
+        <v>3576205.986340242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>214.724346569014</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582365</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.27111068693199</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621475</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>75.13651949521494</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493442</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132225</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002182</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664996</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274125</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>169.7438101404422</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462298003</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139943</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500766</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709558</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.004168848342</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965523</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>1.599126004627117</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.95709139621216</v>
+        <v>54.76109577523593</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4343,37 +4343,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2480.255811655582</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.192924312011</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>1796.424269041897</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.958510780817</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598712</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E4" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F4" t="n">
-        <v>431.1223972961881</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750364</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296044</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296044</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296044</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>380.9740019042111</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>627.7391298106754</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688073</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003442</v>
@@ -5264,25 +5264,25 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583033</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,28 +5513,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839217</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839217</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839217</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188997</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819391</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839217</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839217</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944163</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944163</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.7133084820806</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>117.8002148996875</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>933.2366688293941</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018334</v>
+        <v>643.8194987924335</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8299478944161</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944163</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>726.158403773316</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733161</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>436.7412337363555</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6209,16 +6209,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384091</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384091</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188997</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819392</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>420.0340835819392</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>199.2415044384091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749886</v>
+        <v>604.5641438163744</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749886</v>
+        <v>491.3888261698381</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440237</v>
+        <v>397.0330520388729</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>397.0330520388729</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>305.9039698223331</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>193.4895134235243</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>98.83237025283852</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.947182857881</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1769.788038054804</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1601.763488125681</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1368.39571462061</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.472091696094</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>935.815786940504</v>
+        <v>902.6804289818901</v>
       </c>
       <c r="X31" t="n">
-        <v>763.5871013238574</v>
+        <v>730.4517433652436</v>
       </c>
       <c r="Y31" t="n">
-        <v>763.5871013238574</v>
+        <v>730.4517433652436</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555207</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619849</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142011</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970468</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943505</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627436</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772029</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503156</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>82.39383318338585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.935833713611</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583516974</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179235</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762147</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987028</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108801</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.80400437902349</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312477</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
@@ -26323,37 +26323,37 @@
         <v>684300.8545409905</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409907</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409907</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409899</v>
-      </c>
       <c r="K2" t="n">
-        <v>711938.7403542226</v>
+        <v>711938.7403542231</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312488</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312485</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086707</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.404547896934673e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007435</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.73165600749</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020395</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.5188973279</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.457362627</v>
+        <v>-102332.4573626272</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.4218519175</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.4218519176</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045936997</v>
+        <v>59139.30133339782</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362661</v>
+        <v>584299.3378102945</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362666</v>
+        <v>584299.3378102946</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362666</v>
+        <v>584299.337810294</v>
       </c>
       <c r="I6" t="n">
-        <v>584396.796936266</v>
+        <v>584299.3378102942</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436729</v>
+        <v>407876.1186177014</v>
       </c>
       <c r="K6" t="n">
-        <v>545066.5723509501</v>
+        <v>545048.0786130165</v>
       </c>
       <c r="L6" t="n">
-        <v>580018.0171130281</v>
+        <v>580018.0171130276</v>
       </c>
       <c r="M6" t="n">
-        <v>455559.9086800577</v>
+        <v>455559.9086800579</v>
       </c>
       <c r="N6" t="n">
-        <v>590360.9239138949</v>
+        <v>590360.9239138954</v>
       </c>
       <c r="O6" t="n">
-        <v>590360.923913895</v>
+        <v>590360.9239138954</v>
       </c>
       <c r="P6" t="n">
-        <v>546198.3186110494</v>
+        <v>546198.3186110497</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855682</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108384</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990179</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>36.49982093927528</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023251</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.03869157211892</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688968</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>294.5945811832541</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874007</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106055</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.519424586149398e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.200212213340078e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31042,46 +31042,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31218,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>244.712962907644</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945092</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>437.8086013087276</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412239</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>384.987089538255</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
